--- a/Data/AFNIC-gouvfr-201907.xlsx
+++ b/Data/AFNIC-gouvfr-201907.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27940" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE des sites web OFF" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7995" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7991" uniqueCount="1045">
   <si>
     <t>abonnement-presse.gouv.fr</t>
   </si>
@@ -3155,6 +3155,9 @@
   </si>
   <si>
     <t>NDD non intégré</t>
+  </si>
+  <si>
+    <t>Redirection</t>
   </si>
 </sst>
 </file>
@@ -3203,8 +3206,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="527">
+  <cellStyleXfs count="577">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3736,7 +3789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="527">
+  <cellStyles count="577">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -4000,6 +4053,31 @@
     <cellStyle name="Lien hypertexte" xfId="521" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="523" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="575" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -4263,6 +4341,31 @@
     <cellStyle name="Lien hypertexte visité" xfId="522" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="524" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="576" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -4603,10 +4706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B626"/>
+  <dimension ref="A1:B624"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5180,7 +5283,7 @@
         <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5188,7 +5291,7 @@
         <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7513,7 +7616,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B363" t="s">
         <v>1041</v>
@@ -7521,7 +7624,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B364" t="s">
         <v>1041</v>
@@ -7529,7 +7632,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B365" t="s">
         <v>1041</v>
@@ -7537,7 +7640,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B366" t="s">
         <v>1041</v>
@@ -7545,7 +7648,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B367" t="s">
         <v>1041</v>
@@ -7553,7 +7656,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B368" t="s">
         <v>1041</v>
@@ -7561,7 +7664,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B369" t="s">
         <v>1041</v>
@@ -7569,7 +7672,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="B370" t="s">
         <v>1041</v>
@@ -7577,7 +7680,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B371" t="s">
         <v>1041</v>
@@ -7585,7 +7688,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B372" t="s">
         <v>1041</v>
@@ -7593,7 +7696,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B373" t="s">
         <v>1041</v>
@@ -7601,7 +7704,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B374" t="s">
         <v>1041</v>
@@ -7609,7 +7712,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B375" t="s">
         <v>1041</v>
@@ -7617,7 +7720,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B376" t="s">
         <v>1041</v>
@@ -7625,7 +7728,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B377" t="s">
         <v>1041</v>
@@ -7633,7 +7736,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B378" t="s">
         <v>1041</v>
@@ -7641,7 +7744,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B379" t="s">
         <v>1041</v>
@@ -7649,7 +7752,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B380" t="s">
         <v>1041</v>
@@ -7657,7 +7760,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B381" t="s">
         <v>1041</v>
@@ -7665,7 +7768,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B382" t="s">
         <v>1041</v>
@@ -7673,7 +7776,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B383" t="s">
         <v>1041</v>
@@ -7681,7 +7784,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B384" t="s">
         <v>1041</v>
@@ -7689,7 +7792,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B385" t="s">
         <v>1041</v>
@@ -7697,7 +7800,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B386" t="s">
         <v>1041</v>
@@ -7705,7 +7808,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B387" t="s">
         <v>1041</v>
@@ -7713,7 +7816,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B388" t="s">
         <v>1041</v>
@@ -7721,7 +7824,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B389" t="s">
         <v>1041</v>
@@ -7729,7 +7832,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B390" t="s">
         <v>1041</v>
@@ -7737,7 +7840,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B391" t="s">
         <v>1041</v>
@@ -7745,7 +7848,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B392" t="s">
         <v>1041</v>
@@ -7753,7 +7856,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B393" t="s">
         <v>1041</v>
@@ -7761,7 +7864,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B394" t="s">
         <v>1041</v>
@@ -7769,7 +7872,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B395" t="s">
         <v>1041</v>
@@ -7777,7 +7880,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B396" t="s">
         <v>1041</v>
@@ -7785,7 +7888,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B397" t="s">
         <v>1041</v>
@@ -7793,7 +7896,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B398" t="s">
         <v>1041</v>
@@ -7801,7 +7904,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B399" t="s">
         <v>1041</v>
@@ -7809,7 +7912,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B400" t="s">
         <v>1041</v>
@@ -7817,7 +7920,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B401" t="s">
         <v>1041</v>
@@ -7825,7 +7928,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B402" t="s">
         <v>1041</v>
@@ -7833,7 +7936,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B403" t="s">
         <v>1041</v>
@@ -7841,7 +7944,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B404" t="s">
         <v>1041</v>
@@ -7849,15 +7952,15 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B405" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B406" t="s">
         <v>1041</v>
@@ -7865,7 +7968,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B407" t="s">
         <v>1041</v>
@@ -7873,7 +7976,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B408" t="s">
         <v>1041</v>
@@ -7881,7 +7984,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B409" t="s">
         <v>1041</v>
@@ -7889,7 +7992,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B410" t="s">
         <v>1041</v>
@@ -7897,7 +8000,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B411" t="s">
         <v>1041</v>
@@ -7905,7 +8008,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B412" t="s">
         <v>1041</v>
@@ -7913,7 +8016,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B413" t="s">
         <v>1041</v>
@@ -7921,7 +8024,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B414" t="s">
         <v>1041</v>
@@ -7929,7 +8032,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B415" t="s">
         <v>1041</v>
@@ -7937,7 +8040,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B416" t="s">
         <v>1041</v>
@@ -7945,7 +8048,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B417" t="s">
         <v>1041</v>
@@ -7953,7 +8056,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B418" t="s">
         <v>1041</v>
@@ -7961,7 +8064,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B419" t="s">
         <v>1041</v>
@@ -7969,7 +8072,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B420" t="s">
         <v>1041</v>
@@ -7977,7 +8080,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B421" t="s">
         <v>1041</v>
@@ -7985,7 +8088,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B422" t="s">
         <v>1041</v>
@@ -7993,7 +8096,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B423" t="s">
         <v>1041</v>
@@ -8001,7 +8104,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B424" t="s">
         <v>1041</v>
@@ -8009,7 +8112,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B425" t="s">
         <v>1041</v>
@@ -8017,7 +8120,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B426" t="s">
         <v>1041</v>
@@ -8025,7 +8128,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B427" t="s">
         <v>1041</v>
@@ -8033,7 +8136,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B428" t="s">
         <v>1041</v>
@@ -8041,7 +8144,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B429" t="s">
         <v>1041</v>
@@ -8049,7 +8152,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B430" t="s">
         <v>1041</v>
@@ -8057,7 +8160,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B431" t="s">
         <v>1041</v>
@@ -8065,7 +8168,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B432" t="s">
         <v>1041</v>
@@ -8073,7 +8176,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B433" t="s">
         <v>1041</v>
@@ -8081,7 +8184,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B434" t="s">
         <v>1041</v>
@@ -8089,7 +8192,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B435" t="s">
         <v>1041</v>
@@ -8097,7 +8200,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B436" t="s">
         <v>1041</v>
@@ -8105,7 +8208,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B437" t="s">
         <v>1041</v>
@@ -8113,7 +8216,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B438" t="s">
         <v>1041</v>
@@ -8121,7 +8224,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B439" t="s">
         <v>1041</v>
@@ -8129,7 +8232,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B440" t="s">
         <v>1041</v>
@@ -8137,7 +8240,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B441" t="s">
         <v>1041</v>
@@ -8145,7 +8248,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B442" t="s">
         <v>1041</v>
@@ -8153,7 +8256,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B443" t="s">
         <v>1041</v>
@@ -8161,7 +8264,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B444" t="s">
         <v>1041</v>
@@ -8169,7 +8272,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B445" t="s">
         <v>1041</v>
@@ -8177,7 +8280,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B446" t="s">
         <v>1041</v>
@@ -8185,7 +8288,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B447" t="s">
         <v>1041</v>
@@ -8193,7 +8296,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B448" t="s">
         <v>1041</v>
@@ -8201,7 +8304,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B449" t="s">
         <v>1041</v>
@@ -8209,7 +8312,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B450" t="s">
         <v>1041</v>
@@ -8217,7 +8320,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B451" t="s">
         <v>1041</v>
@@ -8225,7 +8328,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B452" t="s">
         <v>1041</v>
@@ -8233,7 +8336,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B453" t="s">
         <v>1041</v>
@@ -8241,7 +8344,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B454" t="s">
         <v>1041</v>
@@ -8249,7 +8352,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B455" t="s">
         <v>1041</v>
@@ -8257,7 +8360,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B456" t="s">
         <v>1041</v>
@@ -8265,7 +8368,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B457" t="s">
         <v>1041</v>
@@ -8273,7 +8376,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B458" t="s">
         <v>1041</v>
@@ -8281,7 +8384,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B459" t="s">
         <v>1041</v>
@@ -8289,7 +8392,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B460" t="s">
         <v>1041</v>
@@ -8297,7 +8400,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B461" t="s">
         <v>1041</v>
@@ -8305,7 +8408,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B462" t="s">
         <v>1041</v>
@@ -8313,7 +8416,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B463" t="s">
         <v>1041</v>
@@ -8321,7 +8424,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B464" t="s">
         <v>1041</v>
@@ -8329,7 +8432,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B465" t="s">
         <v>1041</v>
@@ -8337,7 +8440,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B466" t="s">
         <v>1041</v>
@@ -8345,7 +8448,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B467" t="s">
         <v>1041</v>
@@ -8353,7 +8456,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B468" t="s">
         <v>1041</v>
@@ -8361,7 +8464,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B469" t="s">
         <v>1041</v>
@@ -8369,7 +8472,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B470" t="s">
         <v>1041</v>
@@ -8377,7 +8480,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B471" t="s">
         <v>1041</v>
@@ -8385,7 +8488,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B472" t="s">
         <v>1041</v>
@@ -8393,7 +8496,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B473" t="s">
         <v>1041</v>
@@ -8401,7 +8504,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B474" t="s">
         <v>1041</v>
@@ -8409,7 +8512,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B475" t="s">
         <v>1041</v>
@@ -8417,7 +8520,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B476" t="s">
         <v>1041</v>
@@ -8425,7 +8528,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B477" t="s">
         <v>1041</v>
@@ -8433,7 +8536,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B478" t="s">
         <v>1041</v>
@@ -8441,7 +8544,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B479" t="s">
         <v>1041</v>
@@ -8449,7 +8552,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B480" t="s">
         <v>1041</v>
@@ -8457,7 +8560,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B481" t="s">
         <v>1041</v>
@@ -8465,7 +8568,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B482" t="s">
         <v>1041</v>
@@ -8473,7 +8576,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B483" t="s">
         <v>1041</v>
@@ -8481,7 +8584,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B484" t="s">
         <v>1041</v>
@@ -8489,7 +8592,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B485" t="s">
         <v>1041</v>
@@ -8497,7 +8600,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B486" t="s">
         <v>1041</v>
@@ -8505,7 +8608,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B487" t="s">
         <v>1041</v>
@@ -8513,7 +8616,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B488" t="s">
         <v>1041</v>
@@ -8521,7 +8624,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B489" t="s">
         <v>1041</v>
@@ -8529,7 +8632,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B490" t="s">
         <v>1041</v>
@@ -8537,7 +8640,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B491" t="s">
         <v>1041</v>
@@ -8545,7 +8648,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B492" t="s">
         <v>1041</v>
@@ -8553,7 +8656,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B493" t="s">
         <v>1041</v>
@@ -8561,7 +8664,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B494" t="s">
         <v>1041</v>
@@ -8569,7 +8672,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B495" t="s">
         <v>1041</v>
@@ -8577,7 +8680,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B496" t="s">
         <v>1041</v>
@@ -8585,7 +8688,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B497" t="s">
         <v>1041</v>
@@ -8593,7 +8696,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B498" t="s">
         <v>1041</v>
@@ -8601,7 +8704,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B499" t="s">
         <v>1041</v>
@@ -8609,7 +8712,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="B500" t="s">
         <v>1041</v>
@@ -8617,7 +8720,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="B501" t="s">
         <v>1041</v>
@@ -8625,7 +8728,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B502" t="s">
         <v>1041</v>
@@ -8633,7 +8736,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B503" t="s">
         <v>1041</v>
@@ -8641,7 +8744,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B504" t="s">
         <v>1041</v>
@@ -8649,7 +8752,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B505" t="s">
         <v>1041</v>
@@ -8657,7 +8760,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B506" t="s">
         <v>1041</v>
@@ -8665,7 +8768,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B507" t="s">
         <v>1041</v>
@@ -8673,7 +8776,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B508" t="s">
         <v>1041</v>
@@ -8681,7 +8784,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B509" t="s">
         <v>1041</v>
@@ -8689,7 +8792,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B510" t="s">
         <v>1041</v>
@@ -8697,7 +8800,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B511" t="s">
         <v>1041</v>
@@ -8705,7 +8808,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B512" t="s">
         <v>1041</v>
@@ -8713,7 +8816,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B513" t="s">
         <v>1041</v>
@@ -8721,7 +8824,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B514" t="s">
         <v>1041</v>
@@ -8729,7 +8832,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B515" t="s">
         <v>1041</v>
@@ -8737,7 +8840,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B516" t="s">
         <v>1041</v>
@@ -8745,7 +8848,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B517" t="s">
         <v>1041</v>
@@ -8753,7 +8856,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B518" t="s">
         <v>1041</v>
@@ -8761,7 +8864,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B519" t="s">
         <v>1041</v>
@@ -8769,7 +8872,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B520" t="s">
         <v>1041</v>
@@ -8777,7 +8880,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B521" t="s">
         <v>1041</v>
@@ -8785,7 +8888,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B522" t="s">
         <v>1041</v>
@@ -8793,7 +8896,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B523" t="s">
         <v>1041</v>
@@ -8801,7 +8904,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B524" t="s">
         <v>1041</v>
@@ -8809,7 +8912,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B525" t="s">
         <v>1041</v>
@@ -8817,7 +8920,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B526" t="s">
         <v>1041</v>
@@ -8825,7 +8928,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B527" t="s">
         <v>1041</v>
@@ -8833,7 +8936,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B528" t="s">
         <v>1041</v>
@@ -8841,7 +8944,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B529" t="s">
         <v>1041</v>
@@ -8849,7 +8952,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="B530" t="s">
         <v>1041</v>
@@ -8857,7 +8960,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="B531" t="s">
         <v>1041</v>
@@ -8865,7 +8968,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B532" t="s">
         <v>1041</v>
@@ -8873,7 +8976,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B533" t="s">
         <v>1041</v>
@@ -8881,7 +8984,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B534" t="s">
         <v>1041</v>
@@ -8889,7 +8992,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B535" t="s">
         <v>1041</v>
@@ -8897,7 +9000,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B536" t="s">
         <v>1041</v>
@@ -8905,7 +9008,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B537" t="s">
         <v>1041</v>
@@ -8913,7 +9016,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B538" t="s">
         <v>1041</v>
@@ -8921,7 +9024,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B539" t="s">
         <v>1041</v>
@@ -8929,7 +9032,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B540" t="s">
         <v>1041</v>
@@ -8937,7 +9040,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B541" t="s">
         <v>1041</v>
@@ -8945,7 +9048,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B542" t="s">
         <v>1041</v>
@@ -8953,7 +9056,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="B543" t="s">
         <v>1041</v>
@@ -8961,7 +9064,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="B544" t="s">
         <v>1041</v>
@@ -8969,7 +9072,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B545" t="s">
         <v>1041</v>
@@ -8977,7 +9080,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B546" t="s">
         <v>1041</v>
@@ -8985,7 +9088,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B547" t="s">
         <v>1041</v>
@@ -8993,7 +9096,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B548" t="s">
         <v>1041</v>
@@ -9001,7 +9104,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B549" t="s">
         <v>1041</v>
@@ -9009,7 +9112,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B550" t="s">
         <v>1041</v>
@@ -9017,7 +9120,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B551" t="s">
         <v>1041</v>
@@ -9025,7 +9128,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B552" t="s">
         <v>1041</v>
@@ -9033,7 +9136,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B553" t="s">
         <v>1041</v>
@@ -9041,7 +9144,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B554" t="s">
         <v>1041</v>
@@ -9049,7 +9152,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B555" t="s">
         <v>1041</v>
@@ -9057,7 +9160,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B556" t="s">
         <v>1041</v>
@@ -9065,7 +9168,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B557" t="s">
         <v>1041</v>
@@ -9073,7 +9176,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B558" t="s">
         <v>1041</v>
@@ -9081,7 +9184,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="B559" t="s">
         <v>1041</v>
@@ -9089,7 +9192,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B560" t="s">
         <v>1041</v>
@@ -9097,7 +9200,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B561" t="s">
         <v>1041</v>
@@ -9105,7 +9208,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B562" t="s">
         <v>1041</v>
@@ -9113,7 +9216,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B563" t="s">
         <v>1041</v>
@@ -9121,7 +9224,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B564" t="s">
         <v>1041</v>
@@ -9129,7 +9232,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B565" t="s">
         <v>1041</v>
@@ -9137,7 +9240,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B566" t="s">
         <v>1041</v>
@@ -9145,7 +9248,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B567" t="s">
         <v>1041</v>
@@ -9153,7 +9256,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B568" t="s">
         <v>1041</v>
@@ -9161,7 +9264,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B569" t="s">
         <v>1041</v>
@@ -9169,7 +9272,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B570" t="s">
         <v>1041</v>
@@ -9177,7 +9280,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="B571" t="s">
         <v>1041</v>
@@ -9185,7 +9288,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="B572" t="s">
         <v>1041</v>
@@ -9193,7 +9296,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B573" t="s">
         <v>1041</v>
@@ -9201,7 +9304,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B574" t="s">
         <v>1041</v>
@@ -9209,7 +9312,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B575" t="s">
         <v>1041</v>
@@ -9217,7 +9320,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B576" t="s">
         <v>1041</v>
@@ -9225,7 +9328,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="B577" t="s">
         <v>1041</v>
@@ -9233,7 +9336,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B578" t="s">
         <v>1041</v>
@@ -9241,7 +9344,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B579" t="s">
         <v>1041</v>
@@ -9249,7 +9352,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B580" t="s">
         <v>1041</v>
@@ -9257,7 +9360,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B581" t="s">
         <v>1041</v>
@@ -9265,7 +9368,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B582" t="s">
         <v>1041</v>
@@ -9273,7 +9376,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B583" t="s">
         <v>1041</v>
@@ -9281,7 +9384,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="B584" t="s">
         <v>1041</v>
@@ -9289,7 +9392,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B585" t="s">
         <v>1041</v>
@@ -9297,7 +9400,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B586" t="s">
         <v>1041</v>
@@ -9305,7 +9408,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B587" t="s">
         <v>1041</v>
@@ -9313,7 +9416,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B588" t="s">
         <v>1041</v>
@@ -9321,7 +9424,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>985</v>
+        <v>1032</v>
       </c>
       <c r="B589" t="s">
         <v>1041</v>
@@ -9329,7 +9432,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>987</v>
+        <v>1034</v>
       </c>
       <c r="B590" t="s">
         <v>1041</v>
@@ -9337,7 +9440,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B591" t="s">
         <v>1041</v>
@@ -9345,7 +9448,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B592" t="s">
         <v>1041</v>
@@ -9353,7 +9456,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B593" t="s">
         <v>1041</v>
@@ -9361,7 +9464,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B594" t="s">
         <v>1041</v>
@@ -9369,23 +9472,23 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>1037</v>
+        <v>60</v>
       </c>
       <c r="B595" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>1038</v>
+        <v>61</v>
       </c>
       <c r="B596" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B597" t="s">
         <v>1039</v>
@@ -9393,7 +9496,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="B598" t="s">
         <v>1039</v>
@@ -9401,7 +9504,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B599" t="s">
         <v>1039</v>
@@ -9409,7 +9512,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B600" t="s">
         <v>1039</v>
@@ -9417,7 +9520,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B601" t="s">
         <v>1039</v>
@@ -9425,7 +9528,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B602" t="s">
         <v>1039</v>
@@ -9433,7 +9536,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B603" t="s">
         <v>1039</v>
@@ -9441,7 +9544,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B604" t="s">
         <v>1039</v>
@@ -9449,7 +9552,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B605" t="s">
         <v>1039</v>
@@ -9457,7 +9560,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="B606" t="s">
         <v>1039</v>
@@ -9465,7 +9568,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="B607" t="s">
         <v>1039</v>
@@ -9473,7 +9576,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>269</v>
+        <v>481</v>
       </c>
       <c r="B608" t="s">
         <v>1039</v>
@@ -9481,7 +9584,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="B609" t="s">
         <v>1039</v>
@@ -9489,7 +9592,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="B610" t="s">
         <v>1039</v>
@@ -9497,7 +9600,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>504</v>
+        <v>583</v>
       </c>
       <c r="B611" t="s">
         <v>1039</v>
@@ -9505,7 +9608,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="B612" t="s">
         <v>1039</v>
@@ -9513,7 +9616,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="B613" t="s">
         <v>1039</v>
@@ -9521,7 +9624,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B614" t="s">
         <v>1039</v>
@@ -9529,7 +9632,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="B615" t="s">
         <v>1039</v>
@@ -9537,7 +9640,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>614</v>
+        <v>674</v>
       </c>
       <c r="B616" t="s">
         <v>1039</v>
@@ -9545,7 +9648,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="B617" t="s">
         <v>1039</v>
@@ -9553,7 +9656,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B618" t="s">
         <v>1039</v>
@@ -9561,7 +9664,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B619" t="s">
         <v>1039</v>
@@ -9569,7 +9672,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B620" t="s">
         <v>1039</v>
@@ -9577,7 +9680,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B621" t="s">
         <v>1039</v>
@@ -9585,7 +9688,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="B622" t="s">
         <v>1039</v>
@@ -9593,7 +9696,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>692</v>
+        <v>719</v>
       </c>
       <c r="B623" t="s">
         <v>1039</v>
@@ -9601,33 +9704,18 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="B624" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="625" spans="1:2">
-      <c r="A625" t="s">
-        <v>719</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2">
-      <c r="A626" t="s">
-        <v>742</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1039</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A626">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A2:A624">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/AFNIC-gouvfr-201907.xlsx
+++ b/Data/AFNIC-gouvfr-201907.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="13960" yWindow="0" windowWidth="13960" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE des sites web OFF" sheetId="2" r:id="rId1"/>
     <sheet name="LISTE AFNIC 2019-07" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTE des sites web OFF'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTE des sites web OFF'!$A$1:$D$623</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7991" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7996" uniqueCount="1054">
   <si>
     <t>abonnement-presse.gouv.fr</t>
   </si>
@@ -3145,9 +3145,6 @@
     <t>Redirect</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
     <t>Possiblement OFF</t>
   </si>
   <si>
@@ -3157,7 +3154,37 @@
     <t>NDD non intégré</t>
   </si>
   <si>
-    <t>Redirection</t>
+    <t>Site en maintenance</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Erreur 403</t>
+  </si>
+  <si>
+    <t>Erreur 404</t>
+  </si>
+  <si>
+    <t>Mauvaise redirection</t>
+  </si>
+  <si>
+    <t>https://www.afbiodiversite.fr/</t>
+  </si>
+  <si>
+    <t>Erreur</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://www.cae-eco.fr/</t>
+  </si>
+  <si>
+    <t>http://archives.cas.gouv.fr/</t>
+  </si>
+  <si>
+    <t>ON/Redirect</t>
   </si>
 </sst>
 </file>
@@ -3206,7 +3233,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="577">
+  <cellStyleXfs count="963">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3783,13 +3810,399 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="577">
+  <cellStyles count="963">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -4078,6 +4491,181 @@
     <cellStyle name="Lien hypertexte" xfId="571" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="573" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="925" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -4366,6 +4954,217 @@
     <cellStyle name="Lien hypertexte visité" xfId="572" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="574" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="962" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -4706,10 +5505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B624"/>
+  <dimension ref="A1:D623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4718,820 +5517,841 @@
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B3" t="s">
         <v>1043</v>
       </c>
-      <c r="B1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>1035</v>
       </c>
       <c r="B4" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>1037</v>
       </c>
       <c r="B5" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>618</v>
+        <v>1038</v>
       </c>
       <c r="B6" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>706</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>714</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>715</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>755</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>822</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>832</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>833</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>843</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1039</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>1039</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>1053</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1053</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1053</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5539,7 +6359,7 @@
         <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5547,7 +6367,7 @@
         <v>186</v>
       </c>
       <c r="B104" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5555,7 +6375,7 @@
         <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5563,7 +6383,7 @@
         <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5571,7 +6391,7 @@
         <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5579,7 +6399,7 @@
         <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5587,7 +6407,7 @@
         <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5595,7 +6415,7 @@
         <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5603,7 +6423,7 @@
         <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5611,7 +6431,7 @@
         <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5619,7 +6439,7 @@
         <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5627,7 +6447,7 @@
         <v>210</v>
       </c>
       <c r="B114" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5635,7 +6455,7 @@
         <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5643,7 +6463,7 @@
         <v>215</v>
       </c>
       <c r="B116" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5651,7 +6471,7 @@
         <v>216</v>
       </c>
       <c r="B117" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5659,7 +6479,7 @@
         <v>217</v>
       </c>
       <c r="B118" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5667,7 +6487,7 @@
         <v>219</v>
       </c>
       <c r="B119" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5675,7 +6495,7 @@
         <v>220</v>
       </c>
       <c r="B120" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5683,7 +6503,7 @@
         <v>221</v>
       </c>
       <c r="B121" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5691,7 +6511,7 @@
         <v>222</v>
       </c>
       <c r="B122" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5699,7 +6519,7 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5707,7 +6527,7 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5715,7 +6535,7 @@
         <v>227</v>
       </c>
       <c r="B125" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5723,7 +6543,7 @@
         <v>228</v>
       </c>
       <c r="B126" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5731,7 +6551,7 @@
         <v>229</v>
       </c>
       <c r="B127" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5739,7 +6559,7 @@
         <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5747,7 +6567,7 @@
         <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5755,23 +6575,23 @@
         <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5779,7 +6599,7 @@
         <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5787,7 +6607,7 @@
         <v>237</v>
       </c>
       <c r="B134" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5795,7 +6615,7 @@
         <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5803,7 +6623,7 @@
         <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5811,7 +6631,7 @@
         <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5819,7 +6639,7 @@
         <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5827,7 +6647,7 @@
         <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5835,7 +6655,7 @@
         <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5843,7 +6663,7 @@
         <v>248</v>
       </c>
       <c r="B141" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5851,7 +6671,7 @@
         <v>250</v>
       </c>
       <c r="B142" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5859,7 +6679,7 @@
         <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5867,7 +6687,7 @@
         <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5875,7 +6695,7 @@
         <v>255</v>
       </c>
       <c r="B145" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5883,7 +6703,7 @@
         <v>256</v>
       </c>
       <c r="B146" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5891,7 +6711,7 @@
         <v>258</v>
       </c>
       <c r="B147" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5899,7 +6719,7 @@
         <v>259</v>
       </c>
       <c r="B148" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5907,7 +6727,7 @@
         <v>260</v>
       </c>
       <c r="B149" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5915,23 +6735,23 @@
         <v>261</v>
       </c>
       <c r="B150" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5939,79 +6759,79 @@
         <v>266</v>
       </c>
       <c r="B153" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B154" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B156" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B157" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B158" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B159" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B161" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B162" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -6019,287 +6839,287 @@
         <v>287</v>
       </c>
       <c r="B163" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B166" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B167" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B168" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B169" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B170" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B171" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B172" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B173" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B174" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B176" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B177" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B178" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B179" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B180" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B181" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B185" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B186" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B187" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B188" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B189" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B190" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B191" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B192" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B193" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B194" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B195" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B196" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B197" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B198" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -6307,95 +7127,95 @@
         <v>344</v>
       </c>
       <c r="B199" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B200" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B201" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B202" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B203" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B204" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B205" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B206" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B207" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B208" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B209" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B210" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -6403,303 +7223,303 @@
         <v>365</v>
       </c>
       <c r="B211" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B212" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B213" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B214" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B215" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B216" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B217" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B218" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B219" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B220" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B221" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B222" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B223" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B224" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B225" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B226" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B227" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B228" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B229" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B230" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B231" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B232" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B233" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B234" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B235" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B236" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B237" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B238" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B239" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B240" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B241" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B242" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B243" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B244" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B245" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B246" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B247" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B248" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6707,199 +7527,199 @@
         <v>419</v>
       </c>
       <c r="B249" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B250" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B251" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B252" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B253" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B254" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B255" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B256" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B257" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B258" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B259" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B260" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B261" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B262" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B263" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B264" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B265" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B266" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B267" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B268" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B269" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B270" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B271" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B272" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B273" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6907,2812 +7727,2805 @@
         <v>466</v>
       </c>
       <c r="B274" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B275" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B276" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B277" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B278" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B279" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B280" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B281" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B282" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B283" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B284" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B285" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B286" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B287" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B288" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B289" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B290" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="B291" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B292" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B293" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B294" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B295" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B296" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B297" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B298" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B299" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B300" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B301" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B302" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B303" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B304" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B305" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B306" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B307" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B308" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B309" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B310" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B311" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B312" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B313" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B314" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B315" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B316" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B317" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B318" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B319" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="B320" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B321" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="B322" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B323" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B324" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B325" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B326" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B327" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B328" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B329" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B331" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B332" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B333" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B334" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B335" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B336" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B337" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B338" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B339" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B340" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B341" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B342" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B343" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B344" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B345" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="B346" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="B347" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="B348" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="B349" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B350" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B351" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="B352" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="B353" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="B354" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B355" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="B356" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="B357" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="B358" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B359" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B360" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="B361" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="B362" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="B363" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B364" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B365" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B366" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="B367" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B368" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B369" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B370" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B371" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B372" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="B373" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="B374" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="B375" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="B376" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="B377" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B378" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B379" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="B380" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="B381" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="B382" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="B383" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="B384" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="B385" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="B386" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="B387" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="B388" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="B389" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="B390" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="B391" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="B392" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B393" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>698</v>
+        <v>663</v>
       </c>
       <c r="B394" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="B395" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>702</v>
+        <v>667</v>
       </c>
       <c r="B396" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
       <c r="B397" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="B398" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="B399" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>713</v>
+        <v>674</v>
       </c>
       <c r="B400" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="B401" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="B402" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>721</v>
+        <v>678</v>
       </c>
       <c r="B403" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>722</v>
+        <v>679</v>
       </c>
       <c r="B404" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
       <c r="B405" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>724</v>
+        <v>681</v>
       </c>
       <c r="B406" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="B407" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="B408" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>729</v>
+        <v>686</v>
       </c>
       <c r="B409" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="B410" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="B411" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="B412" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="B413" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>734</v>
+        <v>692</v>
       </c>
       <c r="B414" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="B415" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="B416" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>737</v>
+        <v>702</v>
       </c>
       <c r="B417" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="B418" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="B419" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="B420" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="B421" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="B422" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="B423" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="B424" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>746</v>
+        <v>716</v>
       </c>
       <c r="B425" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="B426" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="B427" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="B428" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="B429" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="B430" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="B431" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="B432" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="B433" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="B434" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="B435" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>764</v>
+        <v>727</v>
       </c>
       <c r="B436" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
       <c r="B437" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>768</v>
+        <v>730</v>
       </c>
       <c r="B438" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>769</v>
+        <v>731</v>
       </c>
       <c r="B439" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="B440" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>773</v>
+        <v>734</v>
       </c>
       <c r="B441" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>774</v>
+        <v>733</v>
       </c>
       <c r="B442" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>775</v>
+        <v>735</v>
       </c>
       <c r="B443" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>776</v>
+        <v>738</v>
       </c>
       <c r="B444" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>777</v>
+        <v>736</v>
       </c>
       <c r="B445" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>778</v>
+        <v>737</v>
       </c>
       <c r="B446" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="B447" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>780</v>
+        <v>741</v>
       </c>
       <c r="B448" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>781</v>
+        <v>740</v>
       </c>
       <c r="B449" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>782</v>
+        <v>742</v>
       </c>
       <c r="B450" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
       <c r="B451" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>787</v>
+        <v>744</v>
       </c>
       <c r="B452" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>790</v>
+        <v>745</v>
       </c>
       <c r="B453" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>791</v>
+        <v>746</v>
       </c>
       <c r="B454" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>792</v>
+        <v>747</v>
       </c>
       <c r="B455" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>793</v>
+        <v>748</v>
       </c>
       <c r="B456" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>794</v>
+        <v>750</v>
       </c>
       <c r="B457" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="B458" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="B459" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="B460" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>799</v>
+        <v>755</v>
       </c>
       <c r="B461" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>800</v>
+        <v>756</v>
       </c>
       <c r="B462" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>801</v>
+        <v>757</v>
       </c>
       <c r="B463" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>802</v>
+        <v>761</v>
       </c>
       <c r="B464" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>804</v>
+        <v>762</v>
       </c>
       <c r="B465" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>805</v>
+        <v>764</v>
       </c>
       <c r="B466" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>808</v>
+        <v>765</v>
       </c>
       <c r="B467" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>809</v>
+        <v>768</v>
       </c>
       <c r="B468" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>810</v>
+        <v>771</v>
       </c>
       <c r="B469" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="B470" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>812</v>
+        <v>773</v>
       </c>
       <c r="B471" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>813</v>
+        <v>775</v>
       </c>
       <c r="B472" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>814</v>
+        <v>776</v>
       </c>
       <c r="B473" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>815</v>
+        <v>774</v>
       </c>
       <c r="B474" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>816</v>
+        <v>777</v>
       </c>
       <c r="B475" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="B476" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>821</v>
+        <v>779</v>
       </c>
       <c r="B477" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>824</v>
+        <v>781</v>
       </c>
       <c r="B478" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>825</v>
+        <v>780</v>
       </c>
       <c r="B479" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>826</v>
+        <v>783</v>
       </c>
       <c r="B480" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>827</v>
+        <v>782</v>
       </c>
       <c r="B481" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>828</v>
+        <v>787</v>
       </c>
       <c r="B482" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>829</v>
+        <v>790</v>
       </c>
       <c r="B483" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>834</v>
+        <v>791</v>
       </c>
       <c r="B484" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>835</v>
+        <v>792</v>
       </c>
       <c r="B485" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>836</v>
+        <v>793</v>
       </c>
       <c r="B486" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>837</v>
+        <v>794</v>
       </c>
       <c r="B487" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>838</v>
+        <v>795</v>
       </c>
       <c r="B488" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>839</v>
+        <v>796</v>
       </c>
       <c r="B489" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>840</v>
+        <v>797</v>
       </c>
       <c r="B490" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>841</v>
+        <v>799</v>
       </c>
       <c r="B491" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>844</v>
+        <v>800</v>
       </c>
       <c r="B492" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>847</v>
+        <v>801</v>
       </c>
       <c r="B493" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>848</v>
+        <v>802</v>
       </c>
       <c r="B494" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="B495" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>850</v>
+        <v>805</v>
       </c>
       <c r="B496" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>852</v>
+        <v>808</v>
       </c>
       <c r="B497" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>853</v>
+        <v>809</v>
       </c>
       <c r="B498" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>855</v>
+        <v>810</v>
       </c>
       <c r="B499" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>860</v>
+        <v>811</v>
       </c>
       <c r="B500" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>862</v>
+        <v>812</v>
       </c>
       <c r="B501" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="B502" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="B503" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>866</v>
+        <v>815</v>
       </c>
       <c r="B504" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>867</v>
+        <v>816</v>
       </c>
       <c r="B505" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="B506" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>869</v>
+        <v>821</v>
       </c>
       <c r="B507" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>870</v>
+        <v>822</v>
       </c>
       <c r="B508" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>871</v>
+        <v>824</v>
       </c>
       <c r="B509" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>872</v>
+        <v>825</v>
       </c>
       <c r="B510" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>873</v>
+        <v>826</v>
       </c>
       <c r="B511" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>874</v>
+        <v>827</v>
       </c>
       <c r="B512" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="B513" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>877</v>
+        <v>829</v>
       </c>
       <c r="B514" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>879</v>
+        <v>832</v>
       </c>
       <c r="B515" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>880</v>
+        <v>833</v>
       </c>
       <c r="B516" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>881</v>
+        <v>834</v>
       </c>
       <c r="B517" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>882</v>
+        <v>836</v>
       </c>
       <c r="B518" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>883</v>
+        <v>837</v>
       </c>
       <c r="B519" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>884</v>
+        <v>840</v>
       </c>
       <c r="B520" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>885</v>
+        <v>841</v>
       </c>
       <c r="B521" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>886</v>
+        <v>835</v>
       </c>
       <c r="B522" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>887</v>
+        <v>838</v>
       </c>
       <c r="B523" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>888</v>
+        <v>839</v>
       </c>
       <c r="B524" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>889</v>
+        <v>843</v>
       </c>
       <c r="B525" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>890</v>
+        <v>844</v>
       </c>
       <c r="B526" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>893</v>
+        <v>847</v>
       </c>
       <c r="B527" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>894</v>
+        <v>848</v>
       </c>
       <c r="B528" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>895</v>
+        <v>849</v>
       </c>
       <c r="B529" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="B530" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="B531" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>904</v>
+        <v>852</v>
       </c>
       <c r="B532" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
       <c r="B533" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>907</v>
+        <v>862</v>
       </c>
       <c r="B534" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>908</v>
+        <v>860</v>
       </c>
       <c r="B535" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>910</v>
+        <v>863</v>
       </c>
       <c r="B536" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>911</v>
+        <v>866</v>
       </c>
       <c r="B537" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="B538" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="B539" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>914</v>
+        <v>870</v>
       </c>
       <c r="B540" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>915</v>
+        <v>871</v>
       </c>
       <c r="B541" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>916</v>
+        <v>869</v>
       </c>
       <c r="B542" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="B543" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>921</v>
+        <v>872</v>
       </c>
       <c r="B544" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>923</v>
+        <v>873</v>
       </c>
       <c r="B545" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
       <c r="B546" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
       <c r="B547" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>927</v>
+        <v>877</v>
       </c>
       <c r="B548" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>928</v>
+        <v>879</v>
       </c>
       <c r="B549" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>929</v>
+        <v>880</v>
       </c>
       <c r="B550" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>930</v>
+        <v>881</v>
       </c>
       <c r="B551" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>931</v>
+        <v>882</v>
       </c>
       <c r="B552" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>932</v>
+        <v>883</v>
       </c>
       <c r="B553" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>933</v>
+        <v>884</v>
       </c>
       <c r="B554" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>934</v>
+        <v>885</v>
       </c>
       <c r="B555" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>936</v>
+        <v>887</v>
       </c>
       <c r="B556" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>937</v>
+        <v>886</v>
       </c>
       <c r="B557" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>941</v>
+        <v>888</v>
       </c>
       <c r="B558" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>942</v>
+        <v>889</v>
       </c>
       <c r="B559" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>944</v>
+        <v>890</v>
       </c>
       <c r="B560" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>945</v>
+        <v>893</v>
       </c>
       <c r="B561" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>946</v>
+        <v>894</v>
       </c>
       <c r="B562" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>947</v>
+        <v>895</v>
       </c>
       <c r="B563" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>948</v>
+        <v>900</v>
       </c>
       <c r="B564" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>949</v>
+        <v>903</v>
       </c>
       <c r="B565" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>950</v>
+        <v>904</v>
       </c>
       <c r="B566" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>951</v>
+        <v>907</v>
       </c>
       <c r="B567" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>952</v>
+        <v>908</v>
       </c>
       <c r="B568" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>953</v>
+        <v>906</v>
       </c>
       <c r="B569" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>955</v>
+        <v>910</v>
       </c>
       <c r="B570" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>961</v>
+        <v>911</v>
       </c>
       <c r="B571" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>962</v>
+        <v>912</v>
       </c>
       <c r="B572" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>964</v>
+        <v>913</v>
       </c>
       <c r="B573" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>965</v>
+        <v>914</v>
       </c>
       <c r="B574" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>966</v>
+        <v>915</v>
       </c>
       <c r="B575" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>969</v>
+        <v>916</v>
       </c>
       <c r="B576" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>970</v>
+        <v>920</v>
       </c>
       <c r="B577" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="B578" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="B579" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>974</v>
+        <v>926</v>
       </c>
       <c r="B580" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="B581" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>976</v>
+        <v>927</v>
       </c>
       <c r="B582" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>979</v>
+        <v>928</v>
       </c>
       <c r="B583" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>981</v>
+        <v>929</v>
       </c>
       <c r="B584" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>983</v>
+        <v>931</v>
       </c>
       <c r="B585" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>984</v>
+        <v>930</v>
       </c>
       <c r="B586" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>985</v>
+        <v>932</v>
       </c>
       <c r="B587" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>987</v>
+        <v>933</v>
       </c>
       <c r="B588" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>1032</v>
+        <v>934</v>
       </c>
       <c r="B589" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>1034</v>
+        <v>936</v>
       </c>
       <c r="B590" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>1035</v>
+        <v>937</v>
       </c>
       <c r="B591" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1036</v>
+        <v>941</v>
       </c>
       <c r="B592" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1037</v>
+        <v>942</v>
       </c>
       <c r="B593" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>1038</v>
+        <v>944</v>
       </c>
       <c r="B594" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>60</v>
+        <v>947</v>
       </c>
       <c r="B595" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>61</v>
+        <v>948</v>
       </c>
       <c r="B596" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>97</v>
+        <v>945</v>
       </c>
       <c r="B597" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>130</v>
+        <v>946</v>
       </c>
       <c r="B598" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>138</v>
+        <v>949</v>
       </c>
       <c r="B599" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>153</v>
+        <v>950</v>
       </c>
       <c r="B600" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>154</v>
+        <v>951</v>
       </c>
       <c r="B601" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>155</v>
+        <v>952</v>
       </c>
       <c r="B602" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>172</v>
+        <v>953</v>
       </c>
       <c r="B603" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>173</v>
+        <v>955</v>
       </c>
       <c r="B604" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>184</v>
+        <v>961</v>
       </c>
       <c r="B605" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>269</v>
+        <v>962</v>
       </c>
       <c r="B606" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>460</v>
+        <v>964</v>
       </c>
       <c r="B607" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>481</v>
+        <v>965</v>
       </c>
       <c r="B608" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>504</v>
+        <v>966</v>
       </c>
       <c r="B609" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>517</v>
+        <v>970</v>
       </c>
       <c r="B610" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>583</v>
+        <v>969</v>
       </c>
       <c r="B611" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>584</v>
+        <v>972</v>
       </c>
       <c r="B612" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>601</v>
+        <v>974</v>
       </c>
       <c r="B613" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>614</v>
+        <v>973</v>
       </c>
       <c r="B614" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>656</v>
+        <v>975</v>
       </c>
       <c r="B615" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>674</v>
+        <v>976</v>
       </c>
       <c r="B616" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>675</v>
+        <v>979</v>
       </c>
       <c r="B617" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>676</v>
+        <v>981</v>
       </c>
       <c r="B618" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>679</v>
+        <v>983</v>
       </c>
       <c r="B619" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>681</v>
+        <v>984</v>
       </c>
       <c r="B620" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>692</v>
+        <v>985</v>
       </c>
       <c r="B621" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>708</v>
+        <v>987</v>
       </c>
       <c r="B622" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>719</v>
+        <v>1032</v>
       </c>
       <c r="B623" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2">
-      <c r="A624" t="s">
-        <v>742</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A624">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <autoFilter ref="A1:D623"/>
+  <conditionalFormatting sqref="A2:A623">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
